--- a/data/WIKIDATA/contribution.xlsx
+++ b/data/WIKIDATA/contribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldebisschop/Documents/GitHub/FacilityList/data/WIKIDATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD0A57B-C2C9-E043-8E91-C5B9FEE73115}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9C92BD-D386-E447-844B-CA1766F53BAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2000" windowWidth="26320" windowHeight="15440" xr2:uid="{E9B831AE-F163-EA42-8155-DCAFDA3F4732}"/>
+    <workbookView xWindow="4760" yWindow="780" windowWidth="15440" windowHeight="15440" xr2:uid="{E9B831AE-F163-EA42-8155-DCAFDA3F4732}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15756" uniqueCount="2295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15940" uniqueCount="2310">
   <si>
     <t>CREATE</t>
   </si>
@@ -6973,6 +6973,51 @@
   </si>
   <si>
     <t>LaCaille Observatory</t>
+  </si>
+  <si>
+    <t>"Maury Lewin Observatory "</t>
+  </si>
+  <si>
+    <t>"Rani Observatory"</t>
+  </si>
+  <si>
+    <t>"Cosmos Research Center "</t>
+  </si>
+  <si>
+    <t>"CS3-DanHenge Observatory"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "CS3-Trojan Station"</t>
+  </si>
+  <si>
+    <t>"CS3-Palmer Divide Station "</t>
+  </si>
+  <si>
+    <t>"Kitt Peak-Bok observatory"</t>
+  </si>
+  <si>
+    <t>"Command Module Observatory"</t>
+  </si>
+  <si>
+    <t>"Telescope Live"</t>
+  </si>
+  <si>
+    <t>"Northolt Branch Observatory"</t>
+  </si>
+  <si>
+    <t>"Z80"</t>
+  </si>
+  <si>
+    <t>"Stanley Laver Observatory "</t>
+  </si>
+  <si>
+    <t>"Macclesfield"</t>
+  </si>
+  <si>
+    <t>"Z89"</t>
+  </si>
+  <si>
+    <t>"Macclesfield observatory"</t>
   </si>
 </sst>
 </file>
@@ -7056,7 +7101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7066,6 +7111,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7382,8 +7430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D116E7-5B07-A044-AD9B-AC88529859CE}">
   <dimension ref="A1:M6745"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7540,7 +7588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -7551,7 +7599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -7562,12 +7610,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -7577,8 +7625,12 @@
       <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f>140</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -7589,7 +7641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -7600,7 +7652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -7611,12 +7663,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -7627,7 +7679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -7638,7 +7690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -7649,7 +7701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -7659,13 +7711,39 @@
       <c r="C30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -7675,8 +7753,26 @@
       <c r="C33" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -7686,8 +7782,26 @@
       <c r="C34" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -7697,8 +7811,17 @@
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -7708,13 +7831,45 @@
       <c r="C36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -7724,8 +7879,20 @@
       <c r="C39" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -7735,8 +7902,26 @@
       <c r="C40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -7746,8 +7931,17 @@
       <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -7757,13 +7951,54 @@
       <c r="C42" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -7773,8 +8008,17 @@
       <c r="C45" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -7784,8 +8028,20 @@
       <c r="C46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -7795,8 +8051,17 @@
       <c r="C47" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -7806,13 +8071,63 @@
       <c r="C48" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -7822,8 +8137,17 @@
       <c r="C51" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -7833,8 +8157,20 @@
       <c r="C52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -7844,8 +8180,17 @@
       <c r="C53" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -7855,13 +8200,63 @@
       <c r="C54" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -7871,8 +8266,17 @@
       <c r="C57" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -7882,8 +8286,20 @@
       <c r="C58" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -7893,8 +8309,17 @@
       <c r="C59" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -7904,13 +8329,60 @@
       <c r="C60" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" t="s">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>2</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -7920,8 +8392,17 @@
       <c r="C63" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>4</v>
+      </c>
+      <c r="J63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -7931,8 +8412,20 @@
       <c r="C64" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -7942,8 +8435,26 @@
       <c r="C65" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -7953,13 +8464,42 @@
       <c r="C66" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -7970,7 +8510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -7980,8 +8520,11 @@
       <c r="C70" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -7991,8 +8534,17 @@
       <c r="C71" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -8002,13 +8554,42 @@
       <c r="C72" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -8019,7 +8600,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -8029,8 +8610,11 @@
       <c r="C76" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -8040,8 +8624,17 @@
       <c r="C77" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>2</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -8051,10 +8644,39 @@
       <c r="C78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
